--- a/CBT_result.xlsx
+++ b/CBT_result.xlsx
@@ -1822,7 +1822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>[2, 9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2083,11 +2083,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
+    <t>Stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reaction Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inhibition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 8, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 1, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 4, 1, 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 1, 5, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8, 4, 2, 3, 9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 2, 1, 8, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 8, 9, 1, 7, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7, 9 ,6, 4, 8, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 1, 7, 4, 2, 3, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9, 8, 5, 2, 1, 6, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 8, 4, 5, 9, 7, 6, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 9, 7, 6, 3, 1, 5, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 3, 8, 4, 1, 2, 4, 6, 9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 2, 6, 9, 1, 7, 8, 3, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 2, 6, 8, 1, 7, 9, 3, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 3, 8, 7, 1, 2, 4, 6, 9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 9, 3, 6, 7, 2, 4, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 8, 1, 9, 2, 6, 4, 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 7, 9, 2, 8, 4, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 9, 1, 7, 4, 2, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3 ,7 8, 2, 9, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 9, 2, 4, 8, 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 2, 7, 3, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 2, 1, 8, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 1, 5, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 4, 1, 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8, 1, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 7, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reaction Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2100,274 +2360,6 @@
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stimulus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Correct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Correct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reaction Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inhibition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stimulus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 8, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6, 1, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 4, 1, 7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6, 1, 5, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8, 4, 2, 3, 9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 2, 1, 8, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 8, 9, 1, 7, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7, 9 ,6, 4, 8, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 1, 7, 4, 2, 3, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9, 8, 5, 2, 1, 6, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 8, 4, 5, 9, 7, 6, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 9, 7, 6, 3, 1, 5, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 3, 8, 4, 1, 2, 4, 6, 9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 2, 6, 9, 1, 7, 8, 3, 5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 2, 6, 8, 1, 7, 9, 3, 5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 3, 8, 7, 1, 2, 4, 6, 9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 9, 3, 6, 7, 2, 4, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 8, 1, 9, 2, 6, 4, 7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 7, 9, 2, 8, 4, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 9, 1, 7, 4, 2, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3 ,7 8, 2, 9, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 9, 2, 4, 8, 7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 2, 7, 3, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 2, 1, 8, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6, 1, 5, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 4, 1, 7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8, 1, 5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 7, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8, 5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Correct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reaction Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stimulus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block Span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2823,16 +2815,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -2854,7 +2846,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -2868,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2878,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2888,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2898,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2908,7 +2900,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2918,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2928,7 +2920,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2938,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2948,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2958,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2968,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2978,7 +2970,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2988,7 +2980,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2998,7 +2990,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3017,7 +3009,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F20"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3031,58 +3023,50 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
-      <c r="B2" s="10">
-        <f>SUM(F5:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <f>SUM(E5:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3091,10 +3075,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3103,10 +3087,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3115,10 +3099,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3127,10 +3111,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3139,10 +3123,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -3151,10 +3135,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3163,10 +3147,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3175,10 +3159,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3187,10 +3171,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3199,10 +3183,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3211,10 +3195,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3223,10 +3207,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3235,10 +3219,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3247,10 +3231,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3259,10 +3243,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3298,10 +3282,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -3322,16 +3306,16 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -3886,7 +3870,7 @@
   <dimension ref="B1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3958,31 +3942,38 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="L2" s="5">
+        <f>SUM(D5:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="e">
+        <f>AVERAGE(D2,G2,J2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="5" t="e">
+        <f>AVERAGE(E2,H2,K2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -3990,9 +3981,7 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
@@ -4271,7 +4260,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
